--- a/results/angles_nihavent.xlsx
+++ b/results/angles_nihavent.xlsx
@@ -1,37 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ihp/Documents/Deve/musvec/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A662933C-FE1C-A445-B129-9FEE36D259AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A#4</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D#4</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F#4</t>
+  </si>
+  <si>
+    <t>C#4</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D#8</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>A#8</t>
+  </si>
+  <si>
+    <t>D#5</t>
+  </si>
+  <si>
+    <t>G#4</t>
+  </si>
+  <si>
+    <t>F#5</t>
+  </si>
+  <si>
+    <t>C#5</t>
+  </si>
+  <si>
+    <t>G#5</t>
+  </si>
+  <si>
+    <t>A#5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +121,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,1329 +449,1252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="20" width="6.83203125" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A#4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>D#4</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>F#4</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>C#4</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>D#8</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>A#8</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>D#5</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>G#4</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>F#5</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>C#5</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>G#5</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>A#5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
         <v>110.14</v>
       </c>
-      <c r="D2" t="n">
-        <v>81.51000000000001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>99.70999999999999</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="D2" s="2">
+        <v>81.510000000000005</v>
+      </c>
+      <c r="E2" s="2">
+        <v>99.71</v>
+      </c>
+      <c r="F2" s="2">
         <v>55.48</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="2">
         <v>44.43</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2">
         <v>77.36</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="2">
         <v>109.47</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="2">
         <v>85.05</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="2">
         <v>87.66</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="2">
         <v>92.66</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="2">
         <v>102.96</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="2">
         <v>124.02</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="2">
         <v>102.3</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="2">
         <v>99.38</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="2">
         <v>90.23</v>
       </c>
-      <c r="R2" t="n">
-        <v>95.04000000000001</v>
-      </c>
-      <c r="S2" t="n">
-        <v>138.23</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="R2" s="2">
+        <v>95.04</v>
+      </c>
+      <c r="S2" s="2">
+        <v>138.22999999999999</v>
+      </c>
+      <c r="T2" s="2">
         <v>108.39</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <v>110.14</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="2">
         <v>80.78</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2">
         <v>44.91</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2">
         <v>115.88</v>
       </c>
-      <c r="G3" t="n">
-        <v>94.56999999999999</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3" s="2">
+        <v>94.57</v>
+      </c>
+      <c r="H3" s="2">
         <v>91.31</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="2">
         <v>56.29</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="2">
         <v>113.09</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="2">
         <v>114.03</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="2">
         <v>74.64</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="2">
         <v>111.98</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="2">
         <v>106.1</v>
       </c>
-      <c r="O3" t="n">
-        <v>71.31999999999999</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="O3" s="2">
+        <v>71.319999999999993</v>
+      </c>
+      <c r="P3" s="2">
         <v>100.15</v>
       </c>
-      <c r="Q3" t="n">
-        <v>98.34999999999999</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="Q3" s="2">
+        <v>98.35</v>
+      </c>
+      <c r="R3" s="2">
         <v>127.7</v>
       </c>
-      <c r="S3" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="S3" s="2">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="T3" s="2">
         <v>112.8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>A#4</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>81.51000000000001</v>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>81.510000000000005</v>
+      </c>
+      <c r="C4" s="2">
         <v>80.78</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2">
         <v>45.81</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2">
         <v>54.06</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="2">
         <v>101.03</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2">
         <v>95.72</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="2">
         <v>87.47</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="2">
         <v>115.46</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="2">
         <v>87.92</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="2">
         <v>116.48</v>
       </c>
-      <c r="M4" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4" s="2">
+        <v>97.01</v>
+      </c>
+      <c r="N4" s="2">
         <v>101.03</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="2">
         <v>111.76</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="2">
         <v>109.62</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="2">
         <v>110.85</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="2">
         <v>100.91</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="2">
         <v>112.7</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="2">
         <v>88.95</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>99.70999999999999</v>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>99.71</v>
+      </c>
+      <c r="C5" s="2">
         <v>44.91</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2">
         <v>45.81</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2">
         <v>0.02</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2">
         <v>84.72</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="2">
         <v>110.77</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2">
         <v>109.43</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="2">
         <v>61.43</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="2">
         <v>119.32</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="2">
         <v>111.91</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="2">
         <v>102.64</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="2">
         <v>123.02</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="2">
         <v>108.46</v>
       </c>
-      <c r="O5" t="n">
-        <v>87.56999999999999</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="O5" s="2">
+        <v>87.57</v>
+      </c>
+      <c r="P5" s="2">
         <v>128.44</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="2">
         <v>118.1</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="2">
         <v>120.42</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="2">
         <v>93.06</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="2">
         <v>102.95</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
         <v>55.48</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2">
         <v>115.88</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2">
         <v>54.06</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2">
         <v>84.72</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" t="n">
-        <v>78.18000000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>88.18000000000001</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="G6" s="2">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="H6" s="2">
+        <v>88.18</v>
+      </c>
+      <c r="I6" s="2">
         <v>116.33</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="2">
         <v>112.01</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="2">
         <v>66.92</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="2">
         <v>104.93</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="2">
         <v>100.82</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="2">
         <v>94.78</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="2">
         <v>120.63</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="2">
         <v>96.72</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="2">
         <v>108.6</v>
       </c>
-      <c r="R6" t="n">
-        <v>91.23999999999999</v>
-      </c>
-      <c r="S6" t="n">
-        <v>128.89</v>
-      </c>
-      <c r="T6" t="n">
+      <c r="R6" s="2">
+        <v>91.24</v>
+      </c>
+      <c r="S6" s="2">
+        <v>128.88999999999999</v>
+      </c>
+      <c r="T6" s="2">
         <v>100.51</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>D#4</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
         <v>44.43</v>
       </c>
-      <c r="C7" t="n">
-        <v>94.56999999999999</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7" s="2">
+        <v>94.57</v>
+      </c>
+      <c r="D7" s="2">
         <v>101.03</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="2">
         <v>110.77</v>
       </c>
-      <c r="F7" t="n">
-        <v>78.18000000000001</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7" s="2">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="2">
         <v>76.09</v>
       </c>
-      <c r="I7" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="I7" s="2">
+        <v>95.9</v>
+      </c>
+      <c r="J7" s="2">
         <v>80.58</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="2">
         <v>73.02</v>
       </c>
-      <c r="L7" t="n">
-        <v>80.93000000000001</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="L7" s="2">
+        <v>80.930000000000007</v>
+      </c>
+      <c r="M7" s="2">
         <v>84.92</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="2">
         <v>106.01</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="2">
         <v>84.84</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="2">
         <v>74.42</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="2">
         <v>88.63</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="2">
         <v>106.87</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7" s="2">
         <v>99.14</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7" s="2">
         <v>107.81</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
         <v>77.36</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2">
         <v>91.31</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2">
         <v>95.72</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="2">
         <v>109.43</v>
       </c>
-      <c r="F8" t="n">
-        <v>88.18000000000001</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8" s="2">
+        <v>88.18</v>
+      </c>
+      <c r="G8" s="2">
         <v>76.09</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>136.8</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="I8" s="2">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="J8" s="2">
         <v>113.42</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="2">
         <v>98</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="2">
         <v>52.19</v>
       </c>
-      <c r="M8" t="n">
-        <v>74.95999999999999</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8" s="2">
+        <v>74.959999999999994</v>
+      </c>
+      <c r="N8" s="2">
         <v>105.55</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="2">
         <v>104.34</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="2">
         <v>57.58</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="2">
         <v>45.65</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="2">
         <v>83.59</v>
       </c>
-      <c r="S8" t="n">
-        <v>96.06999999999999</v>
-      </c>
-      <c r="T8" t="n">
+      <c r="S8" s="2">
+        <v>96.07</v>
+      </c>
+      <c r="T8" s="2">
         <v>114.61</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>F#4</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
         <v>109.47</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2">
         <v>56.29</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2">
         <v>87.47</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="2">
         <v>61.43</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="2">
         <v>116.33</v>
       </c>
-      <c r="G9" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>136.8</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="G9" s="2">
+        <v>95.9</v>
+      </c>
+      <c r="H9" s="2">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="2">
         <v>68.2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="2">
         <v>88.58</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="2">
         <v>110.8</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="2">
         <v>104.56</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="2">
         <v>88.19</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="2">
         <v>73.77</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="2">
         <v>105.73</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="2">
         <v>124.08</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="2">
         <v>113.2</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="2">
         <v>67.55</v>
       </c>
-      <c r="T9" t="n">
-        <v>78.15000000000001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>C#4</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="T9" s="2">
+        <v>78.150000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
         <v>85.05</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2">
         <v>113.09</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2">
         <v>115.46</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="2">
         <v>119.32</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="2">
         <v>112.01</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="2">
         <v>80.58</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="2">
         <v>113.42</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="2">
         <v>68.2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="2">
         <v>0.02</v>
       </c>
-      <c r="K10" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K10" s="2">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="L10" s="2">
         <v>105.79</v>
       </c>
-      <c r="M10" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10" s="2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="N10" s="2">
         <v>76.16</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="2">
         <v>78.02</v>
       </c>
-      <c r="P10" t="n">
-        <v>86.15000000000001</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P10" s="2">
+        <v>86.15</v>
+      </c>
+      <c r="Q10" s="2">
         <v>86.14</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10" s="2">
         <v>65.48</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10" s="2">
         <v>84.39</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" s="2">
         <v>49.37</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
         <v>87.66</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2">
         <v>114.03</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2">
         <v>87.92</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2">
         <v>111.91</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="2">
         <v>66.92</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="2">
         <v>73.02</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="2">
         <v>98</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="2">
         <v>88.58</v>
       </c>
-      <c r="J11" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J11" s="2">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="K11" s="2">
         <v>0.02</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="2">
         <v>112.59</v>
       </c>
-      <c r="M11" t="n">
-        <v>67.20999999999999</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11" s="2">
+        <v>67.209999999999994</v>
+      </c>
+      <c r="N11" s="2">
         <v>68.86</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="2">
         <v>120.83</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="2">
         <v>52.2</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="2">
         <v>115.5</v>
       </c>
-      <c r="R11" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="R11" s="2">
+        <v>94.9</v>
+      </c>
+      <c r="S11" s="2">
         <v>88.22</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="2">
         <v>82.31</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>D#8</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
         <v>92.66</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2">
         <v>74.64</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="2">
         <v>116.48</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="2">
         <v>102.64</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="2">
         <v>104.93</v>
       </c>
-      <c r="G12" t="n">
-        <v>80.93000000000001</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="G12" s="2">
+        <v>80.930000000000007</v>
+      </c>
+      <c r="H12" s="2">
         <v>52.19</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="2">
         <v>110.8</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="2">
         <v>105.79</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="2">
         <v>112.59</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="2">
         <v>100.14</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12" s="2">
         <v>84.44</v>
       </c>
-      <c r="O12" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="P12" t="n">
-        <v>73.65000000000001</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="O12" s="2">
+        <v>66.709999999999994</v>
+      </c>
+      <c r="P12" s="2">
+        <v>73.650000000000006</v>
+      </c>
+      <c r="Q12" s="2">
         <v>44.95</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="2">
         <v>77.62</v>
       </c>
-      <c r="S12" t="n">
-        <v>65.29000000000001</v>
-      </c>
-      <c r="T12" t="n">
+      <c r="S12" s="2">
+        <v>65.290000000000006</v>
+      </c>
+      <c r="T12" s="2">
         <v>107.33</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
         <v>102.96</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2">
         <v>111.98</v>
       </c>
-      <c r="D13" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13" s="2">
+        <v>97.01</v>
+      </c>
+      <c r="E13" s="2">
         <v>123.02</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="2">
         <v>100.82</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="2">
         <v>84.92</v>
       </c>
-      <c r="H13" t="n">
-        <v>74.95999999999999</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13" s="2">
+        <v>74.959999999999994</v>
+      </c>
+      <c r="I13" s="2">
         <v>104.56</v>
       </c>
-      <c r="J13" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>67.20999999999999</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="J13" s="2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="K13" s="2">
+        <v>67.209999999999994</v>
+      </c>
+      <c r="L13" s="2">
         <v>100.14</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="2">
         <v>0</v>
       </c>
-      <c r="N13" t="n">
-        <v>66.43000000000001</v>
-      </c>
-      <c r="O13" t="n">
-        <v>93.18000000000001</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="N13" s="2">
+        <v>66.430000000000007</v>
+      </c>
+      <c r="O13" s="2">
+        <v>93.18</v>
+      </c>
+      <c r="P13" s="2">
         <v>52.37</v>
       </c>
-      <c r="Q13" t="n">
-        <v>70.34999999999999</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="Q13" s="2">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="R13" s="2">
         <v>71.69</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13" s="2">
         <v>76.2</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="2">
         <v>61.05</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>A#8</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
         <v>124.02</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2">
         <v>106.1</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2">
         <v>101.03</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="2">
         <v>108.46</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="2">
         <v>94.78</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="2">
         <v>106.01</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="2">
         <v>105.55</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="2">
         <v>88.19</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="2">
         <v>76.16</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="2">
         <v>68.86</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="2">
         <v>84.44</v>
       </c>
-      <c r="M14" t="n">
-        <v>66.43000000000001</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14" s="2">
+        <v>66.430000000000007</v>
+      </c>
+      <c r="N14" s="2">
         <v>0.02</v>
       </c>
-      <c r="O14" t="n">
-        <v>71.98999999999999</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="O14" s="2">
+        <v>71.989999999999995</v>
+      </c>
+      <c r="P14" s="2">
         <v>71.56</v>
       </c>
-      <c r="Q14" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="R14" t="n">
+      <c r="Q14" s="2">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="R14" s="2">
         <v>54.12</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="2">
         <v>48.09</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="2">
         <v>45.38</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>D#5</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
         <v>102.3</v>
       </c>
-      <c r="C15" t="n">
-        <v>71.31999999999999</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15" s="2">
+        <v>71.319999999999993</v>
+      </c>
+      <c r="D15" s="2">
         <v>111.76</v>
       </c>
-      <c r="E15" t="n">
-        <v>87.56999999999999</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E15" s="2">
+        <v>87.57</v>
+      </c>
+      <c r="F15" s="2">
         <v>120.63</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="2">
         <v>84.84</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="2">
         <v>104.34</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="2">
         <v>73.77</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="2">
         <v>78.02</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="2">
         <v>120.83</v>
       </c>
-      <c r="L15" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="M15" t="n">
-        <v>93.18000000000001</v>
-      </c>
-      <c r="N15" t="n">
-        <v>71.98999999999999</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="L15" s="2">
+        <v>66.709999999999994</v>
+      </c>
+      <c r="M15" s="2">
+        <v>93.18</v>
+      </c>
+      <c r="N15" s="2">
+        <v>71.989999999999995</v>
+      </c>
+      <c r="O15" s="2">
         <v>0.03</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="2">
         <v>108.97</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="2">
         <v>71.97</v>
       </c>
-      <c r="R15" t="n">
-        <v>81.01000000000001</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="R15" s="2">
+        <v>81.010000000000005</v>
+      </c>
+      <c r="S15" s="2">
         <v>55.05</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="2">
         <v>74.08</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>G#4</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
         <v>99.38</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2">
         <v>100.15</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2">
         <v>109.62</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="2">
         <v>128.44</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="2">
         <v>96.72</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="2">
         <v>74.42</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="2">
         <v>57.58</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="2">
         <v>105.73</v>
       </c>
-      <c r="J16" t="n">
-        <v>86.15000000000001</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J16" s="2">
+        <v>86.15</v>
+      </c>
+      <c r="K16" s="2">
         <v>52.2</v>
       </c>
-      <c r="L16" t="n">
-        <v>73.65000000000001</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="L16" s="2">
+        <v>73.650000000000006</v>
+      </c>
+      <c r="M16" s="2">
         <v>52.37</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16" s="2">
         <v>71.56</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" s="2">
         <v>108.97</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16" s="2">
         <v>0</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" s="2">
         <v>72.06</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16" s="2">
         <v>83.3</v>
       </c>
-      <c r="S16" t="n">
-        <v>68.76000000000001</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="S16" s="2">
+        <v>68.760000000000005</v>
+      </c>
+      <c r="T16" s="2">
         <v>89.88</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>F#5</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
         <v>90.23</v>
       </c>
-      <c r="C17" t="n">
-        <v>98.34999999999999</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17" s="2">
+        <v>98.35</v>
+      </c>
+      <c r="D17" s="2">
         <v>110.85</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="2">
         <v>118.1</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="2">
         <v>108.6</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="2">
         <v>88.63</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="2">
         <v>45.65</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="2">
         <v>124.08</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="2">
         <v>86.14</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="2">
         <v>115.5</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="2">
         <v>44.95</v>
       </c>
-      <c r="M17" t="n">
-        <v>70.34999999999999</v>
-      </c>
-      <c r="N17" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="M17" s="2">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="N17" s="2">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="O17" s="2">
         <v>71.97</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17" s="2">
         <v>72.06</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" s="2">
         <v>0</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17" s="2">
         <v>49.77</v>
       </c>
-      <c r="S17" t="n">
-        <v>77.51000000000001</v>
-      </c>
-      <c r="T17" t="n">
+      <c r="S17" s="2">
+        <v>77.510000000000005</v>
+      </c>
+      <c r="T17" s="2">
         <v>79.7</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>C#5</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>95.04000000000001</v>
-      </c>
-      <c r="C18" t="n">
+    <row r="18" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>95.04</v>
+      </c>
+      <c r="C18" s="2">
         <v>127.7</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2">
         <v>100.91</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="2">
         <v>120.42</v>
       </c>
-      <c r="F18" t="n">
-        <v>91.23999999999999</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="F18" s="2">
+        <v>91.24</v>
+      </c>
+      <c r="G18" s="2">
         <v>106.87</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="2">
         <v>83.59</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="2">
         <v>113.2</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="2">
         <v>65.48</v>
       </c>
-      <c r="K18" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="K18" s="2">
+        <v>94.9</v>
+      </c>
+      <c r="L18" s="2">
         <v>77.62</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="2">
         <v>71.69</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18" s="2">
         <v>54.12</v>
       </c>
-      <c r="O18" t="n">
-        <v>81.01000000000001</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="O18" s="2">
+        <v>81.010000000000005</v>
+      </c>
+      <c r="P18" s="2">
         <v>83.3</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" s="2">
         <v>49.77</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18" s="2">
         <v>0</v>
       </c>
-      <c r="S18" t="n">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="T18" t="n">
+      <c r="S18" s="2">
+        <v>83.6</v>
+      </c>
+      <c r="T18" s="2">
         <v>44.5</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>G#5</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>138.23</v>
-      </c>
-      <c r="C19" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="D19" t="n">
+    <row r="19" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>138.22999999999999</v>
+      </c>
+      <c r="C19" s="2">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D19" s="2">
         <v>112.7</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="2">
         <v>93.06</v>
       </c>
-      <c r="F19" t="n">
-        <v>128.89</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="F19" s="2">
+        <v>128.88999999999999</v>
+      </c>
+      <c r="G19" s="2">
         <v>99.14</v>
       </c>
-      <c r="H19" t="n">
-        <v>96.06999999999999</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H19" s="2">
+        <v>96.07</v>
+      </c>
+      <c r="I19" s="2">
         <v>67.55</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="2">
         <v>84.39</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="2">
         <v>88.22</v>
       </c>
-      <c r="L19" t="n">
-        <v>65.29000000000001</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" s="2">
+        <v>65.290000000000006</v>
+      </c>
+      <c r="M19" s="2">
         <v>76.2</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19" s="2">
         <v>48.09</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" s="2">
         <v>55.05</v>
       </c>
-      <c r="P19" t="n">
-        <v>68.76000000000001</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>77.51000000000001</v>
-      </c>
-      <c r="R19" t="n">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="S19" t="n">
+      <c r="P19" s="2">
+        <v>68.760000000000005</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>77.510000000000005</v>
+      </c>
+      <c r="R19" s="2">
+        <v>83.6</v>
+      </c>
+      <c r="S19" s="2">
         <v>0.02</v>
       </c>
-      <c r="T19" t="n">
-        <v>71.68000000000001</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>A#5</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+      <c r="T19" s="2">
+        <v>71.680000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
         <v>108.39</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="2">
         <v>112.8</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="2">
         <v>88.95</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="2">
         <v>102.95</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="2">
         <v>100.51</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="2">
         <v>107.81</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="2">
         <v>114.61</v>
       </c>
-      <c r="I20" t="n">
-        <v>78.15000000000001</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="I20" s="2">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="J20" s="2">
         <v>49.37</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="2">
         <v>82.31</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="2">
         <v>107.33</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="2">
         <v>61.05</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20" s="2">
         <v>45.38</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20" s="2">
         <v>74.08</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20" s="2">
         <v>89.88</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" s="2">
         <v>79.7</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20" s="2">
         <v>44.5</v>
       </c>
-      <c r="S20" t="n">
-        <v>71.68000000000001</v>
-      </c>
-      <c r="T20" t="n">
+      <c r="S20" s="2">
+        <v>71.680000000000007</v>
+      </c>
+      <c r="T20" s="2">
         <v>0.02</v>
       </c>
     </row>

--- a/results/angles_nihavent.xlsx
+++ b/results/angles_nihavent.xlsx
@@ -540,58 +540,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>117.4</v>
+        <v>127.5</v>
       </c>
       <c r="D2" t="n">
-        <v>74.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="E2" t="n">
-        <v>107.7</v>
+        <v>119.8</v>
       </c>
       <c r="F2" t="n">
-        <v>52.9</v>
+        <v>56.5</v>
       </c>
       <c r="G2" t="n">
-        <v>43.5</v>
+        <v>37.2</v>
       </c>
       <c r="H2" t="n">
-        <v>79.90000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="I2" t="n">
-        <v>110.9</v>
+        <v>121.4</v>
       </c>
       <c r="J2" t="n">
-        <v>76</v>
+        <v>85.8</v>
       </c>
       <c r="K2" t="n">
-        <v>77.90000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="L2" t="n">
-        <v>94.90000000000001</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>99.59999999999999</v>
+        <v>105.3</v>
       </c>
       <c r="N2" t="n">
-        <v>118.9</v>
+        <v>119.8</v>
       </c>
       <c r="O2" t="n">
-        <v>108.9</v>
+        <v>102.8</v>
       </c>
       <c r="P2" t="n">
-        <v>90</v>
+        <v>82.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>100</v>
+        <v>96.3</v>
       </c>
       <c r="R2" t="n">
-        <v>92</v>
+        <v>100.2</v>
       </c>
       <c r="S2" t="n">
-        <v>128.4</v>
+        <v>122</v>
       </c>
       <c r="T2" t="n">
-        <v>108.5</v>
+        <v>124.7</v>
       </c>
     </row>
     <row r="3">
@@ -601,61 +601,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.4</v>
+        <v>127.5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>84.7</v>
+        <v>76.7</v>
       </c>
       <c r="E3" t="n">
-        <v>42.2</v>
+        <v>43.1</v>
       </c>
       <c r="F3" t="n">
-        <v>117.6</v>
+        <v>118.6</v>
       </c>
       <c r="G3" t="n">
-        <v>102</v>
+        <v>113.5</v>
       </c>
       <c r="H3" t="n">
-        <v>99.40000000000001</v>
+        <v>107.2</v>
       </c>
       <c r="I3" t="n">
-        <v>45.9</v>
+        <v>44.6</v>
       </c>
       <c r="J3" t="n">
-        <v>112.8</v>
+        <v>102.6</v>
       </c>
       <c r="K3" t="n">
-        <v>114.6</v>
+        <v>110.1</v>
       </c>
       <c r="L3" t="n">
-        <v>81.09999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>115.3</v>
+        <v>110.3</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7</v>
+        <v>100.9</v>
       </c>
       <c r="O3" t="n">
-        <v>79.3</v>
+        <v>77.7</v>
       </c>
       <c r="P3" t="n">
-        <v>108.3</v>
+        <v>111.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>99.2</v>
+        <v>96.3</v>
       </c>
       <c r="R3" t="n">
-        <v>130.9</v>
+        <v>111.2</v>
       </c>
       <c r="S3" t="n">
-        <v>70.40000000000001</v>
+        <v>52.7</v>
       </c>
       <c r="T3" t="n">
-        <v>107.5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -665,61 +665,61 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="C4" t="n">
-        <v>84.7</v>
+        <v>76.7</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>35.9</v>
       </c>
       <c r="F4" t="n">
-        <v>39.4</v>
+        <v>51.6</v>
       </c>
       <c r="G4" t="n">
-        <v>103.1</v>
+        <v>122.1</v>
       </c>
       <c r="H4" t="n">
-        <v>107.2</v>
+        <v>128</v>
       </c>
       <c r="I4" t="n">
-        <v>84.8</v>
+        <v>74.7</v>
       </c>
       <c r="J4" t="n">
-        <v>108.3</v>
+        <v>113.5</v>
       </c>
       <c r="K4" t="n">
-        <v>75.2</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>119.9</v>
+        <v>118.2</v>
       </c>
       <c r="M4" t="n">
-        <v>107.7</v>
+        <v>110.6</v>
       </c>
       <c r="N4" t="n">
-        <v>101</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>108.9</v>
+        <v>105.8</v>
       </c>
       <c r="P4" t="n">
-        <v>114.1</v>
+        <v>129.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.8</v>
+        <v>102.5</v>
       </c>
       <c r="R4" t="n">
-        <v>100.7</v>
+        <v>94.8</v>
       </c>
       <c r="S4" t="n">
-        <v>114.5</v>
+        <v>114.2</v>
       </c>
       <c r="T4" t="n">
-        <v>89.90000000000001</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="5">
@@ -729,61 +729,61 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107.7</v>
+        <v>119.8</v>
       </c>
       <c r="C5" t="n">
-        <v>42.2</v>
+        <v>43.1</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>35.9</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>83.5</v>
+        <v>83</v>
       </c>
       <c r="G5" t="n">
-        <v>120.8</v>
+        <v>133.8</v>
       </c>
       <c r="H5" t="n">
-        <v>117.5</v>
+        <v>131.2</v>
       </c>
       <c r="I5" t="n">
-        <v>58.1</v>
+        <v>51.7</v>
       </c>
       <c r="J5" t="n">
-        <v>121.4</v>
+        <v>111</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6</v>
+        <v>101.6</v>
       </c>
       <c r="L5" t="n">
-        <v>102.2</v>
+        <v>108.2</v>
       </c>
       <c r="M5" t="n">
-        <v>125.2</v>
+        <v>117.9</v>
       </c>
       <c r="N5" t="n">
-        <v>105.5</v>
+        <v>99.2</v>
       </c>
       <c r="O5" t="n">
-        <v>86.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="P5" t="n">
-        <v>133</v>
+        <v>137.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>111.2</v>
+        <v>105.4</v>
       </c>
       <c r="R5" t="n">
-        <v>119.2</v>
+        <v>102.9</v>
       </c>
       <c r="S5" t="n">
-        <v>90.59999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="T5" t="n">
-        <v>97.5</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="6">
@@ -793,61 +793,61 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.9</v>
+        <v>56.5</v>
       </c>
       <c r="C6" t="n">
-        <v>117.6</v>
+        <v>118.6</v>
       </c>
       <c r="D6" t="n">
-        <v>39.4</v>
+        <v>51.6</v>
       </c>
       <c r="E6" t="n">
-        <v>83.5</v>
+        <v>83</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>84.40000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>95.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>114</v>
+        <v>110.4</v>
       </c>
       <c r="J6" t="n">
-        <v>103.1</v>
+        <v>111.4</v>
       </c>
       <c r="K6" t="n">
-        <v>58.2</v>
+        <v>69.8</v>
       </c>
       <c r="L6" t="n">
-        <v>113</v>
+        <v>109.2</v>
       </c>
       <c r="M6" t="n">
-        <v>97.3</v>
+        <v>107.8</v>
       </c>
       <c r="N6" t="n">
-        <v>97.90000000000001</v>
+        <v>102.8</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8</v>
+        <v>125.2</v>
       </c>
       <c r="P6" t="n">
-        <v>95.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.1</v>
+        <v>100.4</v>
       </c>
       <c r="R6" t="n">
-        <v>88.3</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="S6" t="n">
-        <v>125.3</v>
+        <v>132.4</v>
       </c>
       <c r="T6" t="n">
-        <v>94.8</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -857,61 +857,61 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.5</v>
+        <v>37.2</v>
       </c>
       <c r="C7" t="n">
-        <v>102</v>
+        <v>113.5</v>
       </c>
       <c r="D7" t="n">
-        <v>103.1</v>
+        <v>122.1</v>
       </c>
       <c r="E7" t="n">
-        <v>120.8</v>
+        <v>133.8</v>
       </c>
       <c r="F7" t="n">
-        <v>84.40000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>71.40000000000001</v>
+        <v>49.1</v>
       </c>
       <c r="I7" t="n">
-        <v>101.3</v>
+        <v>116.3</v>
       </c>
       <c r="J7" t="n">
-        <v>73.59999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="K7" t="n">
-        <v>75.8</v>
+        <v>86.3</v>
       </c>
       <c r="L7" t="n">
-        <v>69.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>87.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>105.1</v>
+        <v>110.6</v>
       </c>
       <c r="O7" t="n">
-        <v>89.3</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>65.59999999999999</v>
+        <v>53.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>87.5</v>
+        <v>85</v>
       </c>
       <c r="R7" t="n">
-        <v>96.40000000000001</v>
+        <v>109.7</v>
       </c>
       <c r="S7" t="n">
-        <v>92.7</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9</v>
+        <v>142.4</v>
       </c>
     </row>
     <row r="8">
@@ -921,61 +921,61 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.90000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="C8" t="n">
-        <v>99.40000000000001</v>
+        <v>107.2</v>
       </c>
       <c r="D8" t="n">
-        <v>107.2</v>
+        <v>128</v>
       </c>
       <c r="E8" t="n">
-        <v>117.5</v>
+        <v>131.2</v>
       </c>
       <c r="F8" t="n">
-        <v>95.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>71.40000000000001</v>
+        <v>49.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>128.5</v>
+        <v>138.8</v>
       </c>
       <c r="J8" t="n">
-        <v>104.9</v>
+        <v>101.7</v>
       </c>
       <c r="K8" t="n">
-        <v>97.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>64.3</v>
+        <v>53.7</v>
       </c>
       <c r="M8" t="n">
-        <v>69.90000000000001</v>
+        <v>73</v>
       </c>
       <c r="N8" t="n">
-        <v>105.2</v>
+        <v>108.9</v>
       </c>
       <c r="O8" t="n">
-        <v>114.9</v>
+        <v>93.2</v>
       </c>
       <c r="P8" t="n">
-        <v>54.9</v>
+        <v>57.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>47.9</v>
+        <v>51.1</v>
       </c>
       <c r="R8" t="n">
-        <v>86.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>107</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="T8" t="n">
-        <v>111.6</v>
+        <v>122.8</v>
       </c>
     </row>
     <row r="9">
@@ -985,61 +985,61 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.9</v>
+        <v>121.4</v>
       </c>
       <c r="C9" t="n">
-        <v>45.9</v>
+        <v>44.6</v>
       </c>
       <c r="D9" t="n">
-        <v>84.8</v>
+        <v>74.7</v>
       </c>
       <c r="E9" t="n">
-        <v>58.1</v>
+        <v>51.7</v>
       </c>
       <c r="F9" t="n">
-        <v>114</v>
+        <v>110.4</v>
       </c>
       <c r="G9" t="n">
-        <v>101.3</v>
+        <v>116.3</v>
       </c>
       <c r="H9" t="n">
-        <v>128.5</v>
+        <v>138.8</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>74.90000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>94.5</v>
+        <v>92</v>
       </c>
       <c r="L9" t="n">
-        <v>106.8</v>
+        <v>113.8</v>
       </c>
       <c r="M9" t="n">
-        <v>108.4</v>
+        <v>105.8</v>
       </c>
       <c r="N9" t="n">
-        <v>87.8</v>
+        <v>84.3</v>
       </c>
       <c r="O9" t="n">
-        <v>78.7</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>107.2</v>
+        <v>111.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.4</v>
+        <v>130.8</v>
       </c>
       <c r="R9" t="n">
-        <v>119.2</v>
+        <v>109.3</v>
       </c>
       <c r="S9" t="n">
-        <v>62.8</v>
+        <v>60.8</v>
       </c>
       <c r="T9" t="n">
-        <v>86.7</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1049,61 +1049,61 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76</v>
+        <v>85.8</v>
       </c>
       <c r="C10" t="n">
-        <v>112.8</v>
+        <v>102.6</v>
       </c>
       <c r="D10" t="n">
-        <v>108.3</v>
+        <v>113.5</v>
       </c>
       <c r="E10" t="n">
-        <v>121.4</v>
+        <v>111</v>
       </c>
       <c r="F10" t="n">
-        <v>103.1</v>
+        <v>111.4</v>
       </c>
       <c r="G10" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L10" t="n">
+        <v>108.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="P10" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>118.7</v>
+      </c>
+      <c r="R10" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="H10" t="n">
-        <v>104.9</v>
-      </c>
-      <c r="I10" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>104.7</v>
-      </c>
-      <c r="M10" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="N10" t="n">
-        <v>73</v>
-      </c>
-      <c r="O10" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="P10" t="n">
-        <v>83.8</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="R10" t="n">
-        <v>67.7</v>
-      </c>
       <c r="S10" t="n">
-        <v>81.5</v>
+        <v>86.8</v>
       </c>
       <c r="T10" t="n">
-        <v>61.7</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="11">
@@ -1113,61 +1113,61 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.90000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="C11" t="n">
-        <v>114.6</v>
+        <v>110.1</v>
       </c>
       <c r="D11" t="n">
-        <v>75.2</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>105.6</v>
+        <v>101.6</v>
       </c>
       <c r="F11" t="n">
-        <v>58.2</v>
+        <v>69.8</v>
       </c>
       <c r="G11" t="n">
-        <v>75.8</v>
+        <v>86.3</v>
       </c>
       <c r="H11" t="n">
-        <v>97.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>94.5</v>
+        <v>92</v>
       </c>
       <c r="J11" t="n">
-        <v>83.3</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>114.4</v>
+        <v>117.4</v>
       </c>
       <c r="M11" t="n">
-        <v>65.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="N11" t="n">
-        <v>67.8</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>105.2</v>
+        <v>136.8</v>
       </c>
       <c r="P11" t="n">
-        <v>57.5</v>
+        <v>57.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>112.4</v>
+        <v>107.6</v>
       </c>
       <c r="R11" t="n">
-        <v>91.5</v>
+        <v>82.7</v>
       </c>
       <c r="S11" t="n">
-        <v>84.5</v>
+        <v>83.7</v>
       </c>
       <c r="T11" t="n">
-        <v>81</v>
+        <v>83.40000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1177,61 +1177,61 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>94.90000000000001</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>81.09999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>119.9</v>
+        <v>118.2</v>
       </c>
       <c r="E12" t="n">
-        <v>102.2</v>
+        <v>108.2</v>
       </c>
       <c r="F12" t="n">
-        <v>113</v>
+        <v>109.2</v>
       </c>
       <c r="G12" t="n">
-        <v>69.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>64.3</v>
+        <v>53.7</v>
       </c>
       <c r="I12" t="n">
-        <v>106.8</v>
+        <v>113.8</v>
       </c>
       <c r="J12" t="n">
-        <v>104.7</v>
+        <v>108.1</v>
       </c>
       <c r="K12" t="n">
-        <v>114.4</v>
+        <v>117.4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>85.09999999999999</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>66.90000000000001</v>
+        <v>62.1</v>
       </c>
       <c r="P12" t="n">
-        <v>74.59999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>48.5</v>
+        <v>45.3</v>
       </c>
       <c r="R12" t="n">
-        <v>79.59999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="S12" t="n">
-        <v>66.5</v>
+        <v>68.8</v>
       </c>
       <c r="T12" t="n">
-        <v>103.7</v>
+        <v>125.3</v>
       </c>
     </row>
     <row r="13">
@@ -1241,61 +1241,61 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.59999999999999</v>
+        <v>105.3</v>
       </c>
       <c r="C13" t="n">
-        <v>115.3</v>
+        <v>110.3</v>
       </c>
       <c r="D13" t="n">
-        <v>107.7</v>
+        <v>110.6</v>
       </c>
       <c r="E13" t="n">
-        <v>125.2</v>
+        <v>117.9</v>
       </c>
       <c r="F13" t="n">
-        <v>97.3</v>
+        <v>107.8</v>
       </c>
       <c r="G13" t="n">
-        <v>87.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>69.90000000000001</v>
+        <v>73</v>
       </c>
       <c r="I13" t="n">
-        <v>108.4</v>
+        <v>105.8</v>
       </c>
       <c r="J13" t="n">
-        <v>73.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="K13" t="n">
-        <v>65.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>64.7</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>86.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>54.6</v>
+        <v>54.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="R13" t="n">
-        <v>62.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="S13" t="n">
-        <v>82.8</v>
+        <v>90.5</v>
       </c>
       <c r="T13" t="n">
-        <v>55.3</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="14">
@@ -1305,61 +1305,61 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>118.9</v>
+        <v>119.8</v>
       </c>
       <c r="C14" t="n">
-        <v>106.7</v>
+        <v>100.9</v>
       </c>
       <c r="D14" t="n">
-        <v>101</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>105.5</v>
+        <v>99.2</v>
       </c>
       <c r="F14" t="n">
-        <v>97.90000000000001</v>
+        <v>102.8</v>
       </c>
       <c r="G14" t="n">
-        <v>105.1</v>
+        <v>110.6</v>
       </c>
       <c r="H14" t="n">
-        <v>105.2</v>
+        <v>108.9</v>
       </c>
       <c r="I14" t="n">
-        <v>87.8</v>
+        <v>84.3</v>
       </c>
       <c r="J14" t="n">
-        <v>73</v>
+        <v>75.7</v>
       </c>
       <c r="K14" t="n">
-        <v>67.8</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>85.09999999999999</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>64.7</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>67.8</v>
+        <v>67.5</v>
       </c>
       <c r="P14" t="n">
-        <v>66.7</v>
+        <v>73.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="R14" t="n">
-        <v>50.9</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>44.7</v>
+        <v>76</v>
       </c>
       <c r="T14" t="n">
-        <v>44.1</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="15">
@@ -1369,61 +1369,61 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>108.9</v>
+        <v>102.8</v>
       </c>
       <c r="C15" t="n">
-        <v>79.3</v>
+        <v>77.7</v>
       </c>
       <c r="D15" t="n">
-        <v>108.9</v>
+        <v>105.8</v>
       </c>
       <c r="E15" t="n">
-        <v>86.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="F15" t="n">
-        <v>115.8</v>
+        <v>125.2</v>
       </c>
       <c r="G15" t="n">
-        <v>89.3</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9</v>
+        <v>93.2</v>
       </c>
       <c r="I15" t="n">
-        <v>78.7</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>79.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>105.2</v>
+        <v>136.8</v>
       </c>
       <c r="L15" t="n">
-        <v>66.90000000000001</v>
+        <v>62.1</v>
       </c>
       <c r="M15" t="n">
-        <v>86.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="N15" t="n">
-        <v>67.8</v>
+        <v>67.5</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>105.6</v>
+        <v>94.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="R15" t="n">
-        <v>68.5</v>
+        <v>96</v>
       </c>
       <c r="S15" t="n">
-        <v>52.2</v>
+        <v>80.5</v>
       </c>
       <c r="T15" t="n">
-        <v>57.6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
@@ -1433,61 +1433,61 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90</v>
+        <v>82.3</v>
       </c>
       <c r="C16" t="n">
-        <v>108.3</v>
+        <v>111.9</v>
       </c>
       <c r="D16" t="n">
-        <v>114.1</v>
+        <v>129.3</v>
       </c>
       <c r="E16" t="n">
-        <v>133</v>
+        <v>137.1</v>
       </c>
       <c r="F16" t="n">
-        <v>95.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>65.59999999999999</v>
+        <v>53.6</v>
       </c>
       <c r="H16" t="n">
-        <v>54.9</v>
+        <v>57.3</v>
       </c>
       <c r="I16" t="n">
-        <v>107.2</v>
+        <v>111.9</v>
       </c>
       <c r="J16" t="n">
-        <v>83.8</v>
+        <v>89.5</v>
       </c>
       <c r="K16" t="n">
-        <v>57.5</v>
+        <v>57.8</v>
       </c>
       <c r="L16" t="n">
-        <v>74.59999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="M16" t="n">
-        <v>54.6</v>
+        <v>54.8</v>
       </c>
       <c r="N16" t="n">
-        <v>66.7</v>
+        <v>73.2</v>
       </c>
       <c r="O16" t="n">
-        <v>105.6</v>
+        <v>94.2</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>72.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="R16" t="n">
-        <v>82.7</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="S16" t="n">
-        <v>71.8</v>
+        <v>69.2</v>
       </c>
       <c r="T16" t="n">
-        <v>92.7</v>
+        <v>113.7</v>
       </c>
     </row>
     <row r="17">
@@ -1497,61 +1497,61 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100</v>
+        <v>96.3</v>
       </c>
       <c r="C17" t="n">
-        <v>99.2</v>
+        <v>96.3</v>
       </c>
       <c r="D17" t="n">
-        <v>112.8</v>
+        <v>102.5</v>
       </c>
       <c r="E17" t="n">
-        <v>111.2</v>
+        <v>105.4</v>
       </c>
       <c r="F17" t="n">
-        <v>107.1</v>
+        <v>100.4</v>
       </c>
       <c r="G17" t="n">
-        <v>87.5</v>
+        <v>85</v>
       </c>
       <c r="H17" t="n">
-        <v>47.9</v>
+        <v>51.1</v>
       </c>
       <c r="I17" t="n">
-        <v>126.4</v>
+        <v>130.8</v>
       </c>
       <c r="J17" t="n">
-        <v>99.09999999999999</v>
+        <v>118.7</v>
       </c>
       <c r="K17" t="n">
-        <v>112.4</v>
+        <v>107.6</v>
       </c>
       <c r="L17" t="n">
-        <v>48.5</v>
+        <v>45.3</v>
       </c>
       <c r="M17" t="n">
-        <v>65.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="N17" t="n">
-        <v>78.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>74.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="P17" t="n">
-        <v>72.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>52.9</v>
+        <v>73.3</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7</v>
+        <v>91.7</v>
       </c>
       <c r="T17" t="n">
-        <v>76.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1561,61 +1561,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92</v>
+        <v>100.2</v>
       </c>
       <c r="C18" t="n">
-        <v>130.9</v>
+        <v>111.2</v>
       </c>
       <c r="D18" t="n">
-        <v>100.7</v>
+        <v>94.8</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2</v>
+        <v>102.9</v>
       </c>
       <c r="F18" t="n">
-        <v>88.3</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>96.40000000000001</v>
+        <v>109.7</v>
       </c>
       <c r="H18" t="n">
-        <v>86.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>119.2</v>
+        <v>109.3</v>
       </c>
       <c r="J18" t="n">
-        <v>67.7</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>91.5</v>
+        <v>82.7</v>
       </c>
       <c r="L18" t="n">
-        <v>79.59999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="M18" t="n">
-        <v>62.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="N18" t="n">
-        <v>50.9</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>68.5</v>
+        <v>96</v>
       </c>
       <c r="P18" t="n">
-        <v>82.7</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.9</v>
+        <v>73.3</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>82.8</v>
+        <v>99</v>
       </c>
       <c r="T18" t="n">
-        <v>41.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -1625,61 +1625,61 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>128.4</v>
+        <v>122</v>
       </c>
       <c r="C19" t="n">
-        <v>70.40000000000001</v>
+        <v>52.7</v>
       </c>
       <c r="D19" t="n">
-        <v>114.5</v>
+        <v>114.2</v>
       </c>
       <c r="E19" t="n">
-        <v>90.59999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="F19" t="n">
-        <v>125.3</v>
+        <v>132.4</v>
       </c>
       <c r="G19" t="n">
-        <v>92.7</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>107</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>62.8</v>
+        <v>60.8</v>
       </c>
       <c r="J19" t="n">
-        <v>81.5</v>
+        <v>86.8</v>
       </c>
       <c r="K19" t="n">
-        <v>84.5</v>
+        <v>83.7</v>
       </c>
       <c r="L19" t="n">
-        <v>66.5</v>
+        <v>68.8</v>
       </c>
       <c r="M19" t="n">
-        <v>82.8</v>
+        <v>90.5</v>
       </c>
       <c r="N19" t="n">
-        <v>44.7</v>
+        <v>76</v>
       </c>
       <c r="O19" t="n">
-        <v>52.2</v>
+        <v>80.5</v>
       </c>
       <c r="P19" t="n">
-        <v>71.8</v>
+        <v>69.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.7</v>
+        <v>91.7</v>
       </c>
       <c r="R19" t="n">
-        <v>82.8</v>
+        <v>99</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>69.09999999999999</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="20">
@@ -1689,58 +1689,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>108.5</v>
+        <v>124.7</v>
       </c>
       <c r="C20" t="n">
-        <v>107.5</v>
+        <v>87</v>
       </c>
       <c r="D20" t="n">
-        <v>89.90000000000001</v>
+        <v>61.9</v>
       </c>
       <c r="E20" t="n">
-        <v>97.5</v>
+        <v>66.2</v>
       </c>
       <c r="F20" t="n">
-        <v>94.8</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>108.9</v>
+        <v>142.4</v>
       </c>
       <c r="H20" t="n">
-        <v>111.6</v>
+        <v>122.8</v>
       </c>
       <c r="I20" t="n">
-        <v>86.7</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>61.7</v>
+        <v>74.8</v>
       </c>
       <c r="K20" t="n">
-        <v>81</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>103.7</v>
+        <v>125.3</v>
       </c>
       <c r="M20" t="n">
-        <v>55.3</v>
+        <v>64.8</v>
       </c>
       <c r="N20" t="n">
-        <v>44.1</v>
+        <v>64.8</v>
       </c>
       <c r="O20" t="n">
-        <v>57.6</v>
+        <v>89</v>
       </c>
       <c r="P20" t="n">
-        <v>92.7</v>
+        <v>113.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>76.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>41.8</v>
+        <v>60</v>
       </c>
       <c r="S20" t="n">
-        <v>69.09999999999999</v>
+        <v>104.7</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
